--- a/data/eu_df.xlsx
+++ b/data/eu_df.xlsx
@@ -588,11 +588,11 @@
         <v>35.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2.105</v>
+        <v>0.5043964845276997</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -660,11 +660,11 @@
         <v>35.4</v>
       </c>
       <c r="N3" t="n">
-        <v>2.213</v>
+        <v>0.5907064345708697</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -732,11 +732,11 @@
         <v>38.3</v>
       </c>
       <c r="N4" t="n">
-        <v>2.11</v>
+        <v>0.5200253910687755</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -804,7 +804,7 @@
         <v>28.9</v>
       </c>
       <c r="N5" t="n">
-        <v>2.066</v>
+        <v>0.4541300988607906</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>2.276</v>
+        <v>0.6875396689422701</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -948,11 +948,11 @@
         <v>28.2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.166</v>
+        <v>0.5328531926594485</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1020,7 +1020,7 @@
         <v>41.2</v>
       </c>
       <c r="N8" t="n">
-        <v>2.327</v>
+        <v>0.826514938610609</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>36.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2.252</v>
+        <v>0.7160354266147237</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1164,11 +1164,11 @@
         <v>37.8</v>
       </c>
       <c r="N10" t="n">
-        <v>2.162</v>
+        <v>0.5497695169257135</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1236,7 +1236,7 @@
         <v>29.2</v>
       </c>
       <c r="N11" t="n">
-        <v>2.037</v>
+        <v>0.3886788944508374</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>29.6</v>
       </c>
       <c r="N12" t="n">
-        <v>2.062</v>
+        <v>0.4199250809486476</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>37.3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.095</v>
+        <v>0.5010137846285174</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>2.32</v>
+        <v>0.7508441462442499</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>28.6</v>
       </c>
       <c r="N15" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45.9</v>
       </c>
       <c r="N16" t="n">
-        <v>2.303</v>
+        <v>0.857276897624203</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>37</v>
       </c>
       <c r="N17" t="n">
-        <v>2.385</v>
+        <v>1</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1740,11 +1740,11 @@
         <v>35.65</v>
       </c>
       <c r="N18" t="n">
-        <v>2.22</v>
+        <v>0.5483445570452138</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1812,11 +1812,11 @@
         <v>29</v>
       </c>
       <c r="N19" t="n">
-        <v>1.98</v>
+        <v>0.2750631650586915</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1884,11 +1884,11 @@
         <v>26</v>
       </c>
       <c r="N20" t="n">
-        <v>2.153</v>
+        <v>0.5262776851295047</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -1956,7 +1956,7 @@
         <v>43</v>
       </c>
       <c r="N21" t="n">
-        <v>2.212</v>
+        <v>0.7444765758597904</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>38</v>
       </c>
       <c r="N22" t="n">
-        <v>1.89</v>
+        <v>0.1127811529064752</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2100,11 +2100,11 @@
         <v>35.8</v>
       </c>
       <c r="N23" t="n">
-        <v>1.941</v>
+        <v>0.1750558448391059</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2172,7 +2172,7 @@
         <v>34</v>
       </c>
       <c r="N24" t="n">
-        <v>2.253</v>
+        <v>0.73949806266394</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2244,11 +2244,11 @@
         <v>33.3</v>
       </c>
       <c r="N25" t="n">
-        <v>2.011</v>
+        <v>0.2456460648095131</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -2316,7 +2316,7 @@
         <v>43</v>
       </c>
       <c r="N26" t="n">
-        <v>2.288</v>
+        <v>0.697150434314996</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
